--- a/output_files/output.xlsx
+++ b/output_files/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,10 +448,2090 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sfsd</t>
+          <t>में</t>
         </is>
       </c>
       <c r="B2" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>इन</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>दिनों</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>धमाकेदार</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ट्विस्ट</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>देखने</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ोक</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>मिल</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>रहे</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>हैं</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>जो</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>लोगों</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>को</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>भी</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>बहुत</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>पसंद</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>आ</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>इसी</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>वजह</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>से</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>'ये</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>रिश्ता</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>क्या</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>कहलाता</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>है'</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>टीआरपी</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>और</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>रेटिंग</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>लिस्ट</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>छाया</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>रहता</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>है</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>अभी</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>तक</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>आपने</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>देखा</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>की</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>अक्षरा-अभिमन्यु</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>शादी</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>तैयारी</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>पूरा</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>परिवार</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>लगा</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>हुआ</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>वहीं</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>दूसरी</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ओर</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>अपनी</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ही</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>सिंपल</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>तरीके</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>करना</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>चाहते</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>जबकि</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>दोनों</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ने</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>खुद</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>इस</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>के</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>लिए</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>सबके</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>सामने</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>हां</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>स्टार</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>प्लस</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>हिट</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>टीवी</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>सीरियल</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>हफ्ते</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>जबरदस्त</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>मिलने</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>वाले</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>तमाशा</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>करेगी</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>मुस्कान</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>जल्द</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>का</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>ट्रैक</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>शुरू</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>होगा</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>लेकिन</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>इससे</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>पहले</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>लाइफ</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>नई</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>परेशानियां</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>होने</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>वाली</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>जिसे</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>दुखी</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>अनिभव</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>बहन</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>विलेन</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>बनेगी</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>उनकी</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>रोकने</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>कसम</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>खाएगी</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>अक्षरा</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>अभिमन्यु</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>बात</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>अबीर</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>बचाने</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>बाद</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>उन</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>लेकर</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>केयरफुल</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>हो</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>जाता</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>यह</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>सोचकर</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>एक</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>बार</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>फिर</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>साथ</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>जिंदगी</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>बिताने</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>तैयार</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>जाएगी</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>आने</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>एपिसोड</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>बारे</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>करते</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>दिखाई</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>देगी</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>प्रपोज</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>करने</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>कहती</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>नजर</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>अपने</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>पुराने</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>स्टाइल</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>चिल्ला</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>चिल्लाकर</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>करती</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>देने</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>रिश्ते</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>शुरूआत</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>दोस्त</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>सुनकर</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>होश</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>उड़</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>जाएंगे</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>हंगामा</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>तैयारियां</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>जोरो-शोरो</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>गई</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>घरवालों</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>बताएगी</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>कि</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>वह</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ये</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>सुनते</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>पूरे</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>घर</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>जश्न</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>माहौल</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>बन</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>जाएगा</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>हालांकि</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>गुस्सा</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>जाती</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>खाती</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>सिर्फ</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>अभनिव</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>भाई</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>जी</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>किसी</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>कभी</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>खुश</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>नहीं</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>रहेंगे</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>देगा</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>अभिनव</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>बच्चे</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>नाम</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>फंक्शन</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>तब</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>सब</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>कुछ</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>अच्छा</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>चल</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>रहा</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>बीच</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>उसकी</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>प्रेग्नेंसी</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>खबर</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>पता</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>चलेगा</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>जब</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>उसे</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>मां</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>तो</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>चौक</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>जात</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>अपना</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>वालो</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>झटका</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>लगता</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>सभी</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>समझता</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>अब</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>करेगा</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>उसके</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>बेटे</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>किया</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>था</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>न्यूज</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>खड़ा</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
         <v>1</v>
       </c>
     </row>
